--- a/pred_ohlcv/54_21/2020-01-21 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 DASH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-22.41602840000002</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-23.41602840000002</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-23.41602840000002</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-23.47932840000002</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-23.47932840000002</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-26.36922840000003</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-26.32532840000002</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-12.99442840000002</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-5.917428400000023</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-24.91842840000002</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-26.71842840000003</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-8.325728400000024</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-7.202728400000024</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-70.52372840000002</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-89.39872840000001</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-89.45312840000001</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-86.75312840000001</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-86.75312840000001</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-96.74892840000003</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-96.40652840000003</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-55.61352840000004</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-44.80742840000003</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-7.816728400000038</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-7.816728400000038</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>6.261771599999962</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>16.96177159999996</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>47.78957159999996</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>71.49757159999996</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>133.7144716</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>127.5572716</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>107.7962716</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>209.20424886</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>239.97454886</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>215.59967843</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>215.59967843</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>146.96407843</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>147.06417843</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>147.06417843</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>99.16057842999997</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>99.16057842999997</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>84.92947842999997</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>99.60290233999997</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>103.08820234</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>103.08820234</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>94.57080233999997</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>61.50580233999997</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>63.79350233999997</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>13.66280233999998</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>17.09570233999997</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>11.73510233999997</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>20.01240233999997</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>24.81240233999997</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>20.87840233999997</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>26.11230233999997</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>14.07470233999998</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-11.94484776999998</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>10.77559616000002</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>8.402596160000019</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>9.01289616000002</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>9.01289616000002</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>60.46964344000002</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>53.46964344000002</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>47.46964344000002</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>68.96844343999999</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>75.68584343999999</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>75.69434343999998</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>69.89434343999999</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>68.42714343999998</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>69.21714343999999</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>69.21714343999999</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>69.10134343999999</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>69.35944343999999</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>46.37684343999999</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>53.75264343999999</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>52.65894343999999</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>37.99244343999999</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>16.87414343999999</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>23.18984343999999</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>24.33504343999999</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>24.33504343999999</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>25.99764343999999</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>26.02404343999999</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>5.351443439999986</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-7.611956560000014</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>11.01354343999999</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>12.70134343999999</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>6.613443439999986</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1.495556560000014</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-11.10335656000001</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-10.40325656000001</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-24.66095656000001</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-24.66095656000001</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-24.66095656000001</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-24.66095656000001</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-29.05255656000001</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-70.82615656000002</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>6.382143439999979</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>22.66494343999998</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>24.06854343999998</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>18.07204343999998</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>21.27204343999998</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>16.50274343999998</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>16.50274343999998</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-21.05015656000002</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-21.03545656000001</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 DASH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-22.41602840000002</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-23.41602840000002</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-23.41602840000002</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-12.99442840000002</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-5.917428400000023</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-24.91842840000002</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-26.71842840000003</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-8.325728400000024</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-7.202728400000024</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-70.52372840000002</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-95.09542840000002</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-92.50172840000002</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-92.49292840000003</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-96.74892840000003</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-96.40652840000003</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-55.61352840000004</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-44.80742840000003</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-7.816728400000038</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-7.816728400000038</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>6.261771599999962</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>16.96177159999996</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>47.78957159999996</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>71.49757159999996</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>133.7144716</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>127.5572716</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>107.7962716</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>208.05324886</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>208.05324886</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>209.20424886</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>209.20424886</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>239.97454886</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>215.59967843</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>215.59967843</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>146.96407843</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>147.06417843</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>147.06417843</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>99.16057842999997</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>87.23557842999998</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>97.31517842999997</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>103.08820234</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>94.57080233999997</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>13.66280233999998</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>17.09570233999997</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>11.73510233999997</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>20.01240233999997</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>24.81240233999997</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>20.87840233999997</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>26.11230233999997</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>14.07470233999998</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-11.94484776999998</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>10.77559616000002</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>8.402596160000019</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>9.01289616000002</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>9.01289616000002</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>60.46964344000002</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>53.46964344000002</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>47.46964344000002</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>68.96844343999999</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>75.68584343999999</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>75.69434343999998</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>69.89434343999999</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>68.42714343999998</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>69.21714343999999</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>69.21714343999999</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>69.10134343999999</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>69.35944343999999</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>46.37684343999999</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>53.75264343999999</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>52.65894343999999</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>37.99244343999999</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>16.87414343999999</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>23.18984343999999</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>24.33504343999999</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>24.33504343999999</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>25.99764343999999</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>26.02404343999999</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>5.351443439999986</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-7.611956560000014</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>11.01354343999999</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>12.70134343999999</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>6.613443439999986</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1.495556560000014</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-24.66095656000001</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-24.66095656000001</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-29.05255656000001</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-70.82615656000002</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>6.382143439999979</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>22.66494343999998</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>24.06854343999998</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>18.07204343999998</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>21.27204343999998</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>16.50274343999998</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>16.50274343999998</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-21.05015656000002</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-21.03545656000001</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
